--- a/rackspace-content-detail.xlsx
+++ b/rackspace-content-detail.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robb7848/GitHub/Rcbops/robb-romans/Deconst/nexus-control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F454AC2B-4AC1-2541-BD4E-D0ED901733F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64807A9B-16B5-C34B-96EF-96601B586666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="2660" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="4520" yWindow="2660" windowWidth="27640" windowHeight="16940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Repos" sheetId="3" r:id="rId1"/>
     <sheet name="Redirects" sheetId="2" r:id="rId2"/>
+    <sheet name="Theme" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="jsonformatter" localSheetId="1">Redirects!$A$27:$E$76</definedName>
@@ -121,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="948">
   <si>
     <t>description</t>
   </si>
@@ -2926,6 +2927,45 @@
   </si>
   <si>
     <t>https://github.com/rackerlabs/kaas/2.0.x</t>
+  </si>
+  <si>
+    <t>Content appearance / theme</t>
+  </si>
+  <si>
+    <t>developer.rackspace.com/blog</t>
+  </si>
+  <si>
+    <t>See</t>
+  </si>
+  <si>
+    <t>https://github.com/rackerlabs/nexus-control/tree/master/assets/src</t>
+  </si>
+  <si>
+    <t>support.rackspacce.com</t>
+  </si>
+  <si>
+    <t>https://github.com/rackerlabs/nexus-control/tree/master/assets/support.rackspace.com/src</t>
+  </si>
+  <si>
+    <t>Template information</t>
+  </si>
+  <si>
+    <t>https://deconst-next.org/writing-docs/coordinator/templates.html</t>
+  </si>
+  <si>
+    <t>Asset information</t>
+  </si>
+  <si>
+    <t>https://deconst-next.org/writing-docs/coordinator/template-assets.html</t>
+  </si>
+  <si>
+    <t>Nunjucks</t>
+  </si>
+  <si>
+    <t>Grunt</t>
+  </si>
+  <si>
+    <t>CSS</t>
   </si>
 </sst>
 </file>
@@ -2935,7 +2975,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3088,6 +3128,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3435,7 +3482,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3443,6 +3490,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3825,7 +3873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
@@ -10384,4 +10432,88 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24">
+      <c r="A1" s="7" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>941</v>
+      </c>
+      <c r="C3" t="s">
+        <v>945</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>943</v>
+      </c>
+      <c r="C4" t="s">
+        <v>946</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>937</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>937</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>940</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>